--- a/reminders.xlsx
+++ b/reminders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Sharma\Documents\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC77C5B-B62D-424F-87D1-C50FF9A56D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521C6FB-D948-4F74-BF28-C92BAA63600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{AEE93E40-8D96-4E18-8E12-705DB5873A6F}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82430555555555551</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.89027777777777772</v>
+        <v>0.82453703703703707</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.82476851851851851</v>
       </c>
     </row>
   </sheetData>

--- a/reminders.xlsx
+++ b/reminders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Sharma\Documents\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521C6FB-D948-4F74-BF28-C92BAA63600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAACBE6-5873-42C3-A12D-C77A7CBA72D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{AEE93E40-8D96-4E18-8E12-705DB5873A6F}"/>
   </bookViews>
@@ -34,15 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">go to gym </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>call LIC agent</t>
   </si>
   <si>
     <t>apply for scholarship</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>go to gym</t>
   </si>
 </sst>
 </file>
@@ -78,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA4AD2-189D-4404-9F97-0D7730AEAA96}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,15 +415,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.82430555555555551</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.82453703703703707</v>
@@ -424,10 +431,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.82476851851851851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.82430555555555551</v>
       </c>
     </row>
   </sheetData>
